--- a/Wyniki 3/Ostateczne wyniki/S4 - podsumowanie.xlsx
+++ b/Wyniki 3/Ostateczne wyniki/S4 - podsumowanie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\Ostateczne wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047281E4-62B1-4B6D-9A71-F0AB8A4CF1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A5A4A-9DD0-4C14-8633-D02A806835CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Graphql tradycyjny (resolved fields) z data loader i optymalizacją zapytań do bazy, wybrane dane</t>
   </si>
   <si>
-    <t>S3 - pobieranie order, order details i products</t>
-  </si>
-  <si>
     <t>2,1GB</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>840MB</t>
+  </si>
+  <si>
+    <t>S4 - pobieranie order, order details, products i suppliers</t>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G5:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
   <sheetData>
     <row r="5" spans="7:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>16</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>16</v>
@@ -818,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>16</v>
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>16</v>
@@ -854,16 +854,16 @@
         <v>5</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="7:15" x14ac:dyDescent="0.25">
@@ -872,16 +872,16 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="7:15" x14ac:dyDescent="0.25">
@@ -890,16 +890,16 @@
         <v>7</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="7:15" x14ac:dyDescent="0.25">
@@ -908,16 +908,16 @@
         <v>8</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="7:15" x14ac:dyDescent="0.25">
@@ -962,16 +962,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.25">
@@ -980,16 +980,16 @@
         <v>11</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>16</v>
@@ -1036,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>16</v>
@@ -1054,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>16</v>
@@ -1072,16 +1072,16 @@
         <v>5</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.25">
@@ -1090,16 +1090,16 @@
         <v>6</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.25">
@@ -1108,16 +1108,16 @@
         <v>7</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="7:12" x14ac:dyDescent="0.25">
@@ -1126,16 +1126,16 @@
         <v>8</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="7:12" x14ac:dyDescent="0.25">
@@ -1180,16 +1180,16 @@
         <v>12</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="7:12" x14ac:dyDescent="0.25">
@@ -1198,16 +1198,16 @@
         <v>11</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="7:12" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>16</v>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>16</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>16</v>
@@ -1272,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>16</v>
@@ -1290,16 +1290,16 @@
         <v>5</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
@@ -1308,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.25">
@@ -1326,16 +1326,16 @@
         <v>7</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.25">
@@ -1344,16 +1344,16 @@
         <v>8</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
@@ -1398,16 +1398,16 @@
         <v>12</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
@@ -1416,16 +1416,16 @@
         <v>11</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
